--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,66 +12,276 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>3750984   EsoccerGTLeagues-12minsplay   Bayern (General) Esports  VS  PSG (Pipis) Esports   Soccer   2022-09-08T08:29:28  Status = 1   After game start time out = :  9 hours  17 minutes</t>
-  </si>
-  <si>
-    <t>3750985   EsoccerGTLeagues-12minsplay   Liverpool (Votepeace) Esports  VS  Real Madrid (Rafa) Esports   Soccer   2022-09-08T08:29:32  Status = 1   After game start time out = :  9 hours  17 minutes</t>
-  </si>
-  <si>
-    <t>3752069   TTStarSeries   Tomas Koldas  VS  David Prusa   Table Tennis   2022-09-08T14:18:23  Status = 1   After game start time out = :  3 hours  28 minutes</t>
-  </si>
-  <si>
-    <t>3750146   Setka Cup   Volodymyr Bilobrov  VS  Ilya Parnivoda   Table Tennis   2022-09-08T14:30:00  Status = 1   After game start time out = :  3 hours  16 minutes</t>
-  </si>
-  <si>
-    <t>3750362   TT-CUP   Andrey Romanov  VS  Johannes Kant   Table Tennis   2022-09-08T14:45:00  Status = 1   After game start time out = :  3 hours  1 minutes</t>
-  </si>
-  <si>
-    <t>3750102   Setka Cup   Tomas lukes  VS  Tomas Stejskal Jr   Table Tennis   2022-09-08T14:45:00  Status = 1   After game start time out = :  3 hours  1 minutes</t>
-  </si>
-  <si>
-    <t>3749506   Setka Cup   Adam Vojkovic  VS  Adam Klbik   Table Tennis   2022-09-08T14:50:00  Status = 1   After game start time out = :  2 hours  56 minutes</t>
-  </si>
-  <si>
-    <t>3749211   Setka Cup   Mykhailo Urban  VS  Orest Melnik   Table Tennis   2022-09-08T14:50:00  Status = 1   After game start time out = :  2 hours  56 minutes</t>
-  </si>
-  <si>
-    <t>3748806   Czech Liga Pro   Dominik Lengal  VS  Tomas Bartik   Table Tennis   2022-09-08T15:00:00  Status = 1   After game start time out = :  2 hours  46 minutes</t>
-  </si>
-  <si>
-    <t>3749020   Czech Liga Pro   Jiri Motak  VS  Jaromir Kanok   Table Tennis   2022-09-08T15:00:00  Status = 1   After game start time out = :  2 hours  46 minutes</t>
-  </si>
-  <si>
-    <t>3732710   1st ODI   Australia  VS  New Zealand   Cricket   2022-09-08T08:20:00  Status = 1   After game start time out = :  9 hours  26 minutes</t>
-  </si>
-  <si>
-    <t>3748937   King of Glory - LeiTing Cup   Rogue Warriors (KG)  VS  Wolves (KG)   E-sports   2022-09-08T13:00:00  Status = 1   After game start time out = :  4 hours  46 minutes</t>
-  </si>
-  <si>
-    <t>3715103   Global Offensive - ESL Pro League   OutSiders (CS)  VS  For The Win (CS)   E-sports   2022-09-08T14:30:00  Status = 1   After game start time out = :  3 hours  16 minutes</t>
-  </si>
-  <si>
-    <t>3749119   NPB   Chiba Lotte Marines  VS  Nippon-Ham Fighters   Baseball   2022-09-08T13:00:00  Status = 1   After game start time out = :  4 hours  46 minutes</t>
-  </si>
-  <si>
-    <t>3749115   NPB   Chunichi Dragons  VS  Hiroshima Carp   Baseball   2022-09-08T13:00:00  Status = 1   After game start time out = :  4 hours  46 minutes</t>
-  </si>
-  <si>
-    <t>3749116   NPB   Fukuoka Hawks  VS  Rakuten Gold. Eagles   Baseball   2022-09-08T13:00:00  Status = 1   After game start time out = :  4 hours  46 minutes</t>
-  </si>
-  <si>
-    <t>3749123   NPB   Yomiuri Giants  VS  Yokohama BayStars   Baseball   2022-09-08T13:00:00  Status = 1   After game start time out = :  4 hours  46 minutes</t>
-  </si>
-  <si>
-    <t>3750091   KBO   Doosan Bears  VS  Hanwha Eagles   Baseball   2022-09-08T13:30:00  Status = 1   After game start time out = :  4 hours  16 minutes</t>
-  </si>
-  <si>
-    <t>3749316   KBO   Nexen Heroes  VS  LG Twins   Baseball   2022-09-08T13:30:00  Status = 1   After game start time out = :  4 hours  16 minutes</t>
-  </si>
-  <si>
-    <t>3750094   KBO   SSG Landers  VS  Kia Tigers   Baseball   2022-09-08T13:30:00  Status = 1   After game start time out = :  4 hours  16 minutes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+  <si>
+    <t>3753064   EsoccerGTLeagues-12minsplay   Villarreal (Cliff) Esports  VS  Arsenal (Brand) Esports   Soccer   2022-09-08T17:29:01  Status = 1   After game start time out = :  15 hours  53 minutes</t>
+  </si>
+  <si>
+    <t>3753065   EsoccerGTLeagues-12minsplay   Roma (Nero) Esports  VS  Lazio (Krouks) Esports   Soccer   2022-09-08T17:29:28  Status = 1   After game start time out = :  15 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3754173   EsoccerBattle-8minsplay   Real Madrid (BPBP94) Esports  VS  PSG (Calvin) Esports   Soccer   2022-09-09T02:21:27  Status = 1   After game start time out = :  6 hours  59 minutes</t>
+  </si>
+  <si>
+    <t>3746132   ATP CH Cassis   Francesco Maestrelli  VS  Ryan Peniston   Tennis   2022-09-08T12:30:00  Status = 1   After game start time out = :  20 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750033   ITF-M Maribor   Valentin Royer  VS  Tim Heger   Tennis   2022-09-08T13:10:00  Status = 1   After game start time out = :  20 hours  12 minutes</t>
+  </si>
+  <si>
+    <t>3750466   ITF-M Sintra   Adria Soriano Barrera  VS  Kelsey Stevenson   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3747898   ITF-W Casablanca   Aleksandra Pospelova  VS  Alina Korneeva   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3748562   ITF-W Marbella   Angela Fita Boluda  VS  Jasmijn Gimbrere   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749846   ITF-W Marbella   Ekaterina Ovcharenko  VS  Amanda Carreras   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750219   ITF-W Casablanca   Eleanor Baglow  VS  Ela Platenikova   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749069   ITF-M Sintra   Fabio Coelho  VS  Duarte Vale   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750468   ITF-M Sintra   Goncalo Oliveira  VS  Mario Gonzalez Fernandez   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750218   ITF-W Casablanca   Ilinca Dalina Amariei  VS  Oumaima Aziz   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749456   ITF-W Frydek Mistek   Karolina Vlckova  VS  Sofia Nami Samavati   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750445   ITF-W Casablanca   Laura Hietaranta  VS  Lucia Peyre   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3746473   ITF-M Sintra   Lorenzo Claverie  VS  Sasi Kumar Mukund   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750208   ITF-W Casablanca   Marie Mettraux  VS  Mariana Drazic   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3748561   ITF-M Cairo   Mohamed Maamoon  VS  Leo Borg   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749479   ITF-W Frydek Mistek   Nika Radisic  VS  Mara Guth   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749863   ITF-W Casablanca   Noelia Bouzo Zanotti  VS  Nina Rudiukova   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749205   ITF-M Cairo   Remy Bertola  VS  Alec Beckley   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3748559   ITF-M Cairo   Santiago De La Fuente  VS  Ilya Rudiukov   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3748971   IITF-M Constanta   Valentin Vanta  VS  Kai Wehnelt   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749305   Monastir, Tunisia   Viktor Jovic  VS  Tom Evans   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3748560   ITF-W Marbella   Xiaodi You  VS  Naia Mercadier   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749148   Monastir, Tunisia   Xinxin Yao  VS  Esther Bataille   Tennis   2022-09-08T13:30:00  Status = 1   After game start time out = :  19 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749397   ITF-M Madrid   Vilius Gaubas  VS  Alvaro Lopez San Martin   Tennis   2022-09-08T13:35:00  Status = 1   After game start time out = :  19 hours  47 minutes</t>
+  </si>
+  <si>
+    <t>3750265   ITF-W Cairo   Melania Delai  VS  Anastasia Zolotareva   Tennis   2022-09-08T13:45:00  Status = 1   After game start time out = :  19 hours  37 minutes</t>
+  </si>
+  <si>
+    <t>3749307   Monastir, Tunisia   Jacob Bradshaw  VS  Matthew Dellavedova   Tennis   2022-09-08T13:50:00  Status = 1   After game start time out = :  19 hours  32 minutes</t>
+  </si>
+  <si>
+    <t>3748913   ATP CH Tulln   Jurij Rodionov  VS  Jozef Kovalik   Tennis   2022-09-08T13:50:00  Status = 1   After game start time out = :  19 hours  32 minutes</t>
+  </si>
+  <si>
+    <t>3750045   ITF-W Cairo   Rosa Vicens Mas  VS  Ayla Aksu   Tennis   2022-09-08T13:50:00  Status = 1   After game start time out = :  19 hours  32 minutes</t>
+  </si>
+  <si>
+    <t>3750244   ITF-M Cairo   Fabrizio Andaloro  VS  Leonardo Aboian   Tennis   2022-09-08T13:55:00  Status = 1   After game start time out = :  19 hours  27 minutes</t>
+  </si>
+  <si>
+    <t>3750708   World Padel Tour Cascais Women   Collombon/Castello  VS  Ortega/Gonzalez   Tennis   2022-09-08T14:00:00  Status = 1   After game start time out = :  19 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3750106   ITF-M Bagneres-de-bigorre   Federico Agustin Gomez  VS  Noah Lopez   Tennis   2022-09-08T14:00:00  Status = 1   After game start time out = :  19 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3750216   ITF-M Budapest   Koray Kirci  VS  Peter Fajta   Tennis   2022-09-08T14:00:00  Status = 1   After game start time out = :  19 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3751128   World Padel Tour Cascais   Maximilian Sanchez / Capra  VS  Leal / Rico   Tennis   2022-09-08T14:00:00  Status = 1   After game start time out = :  19 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3750570   ITF-M Salerno   Omar Brigida  VS  Giorgio Ricca   Tennis   2022-09-08T14:00:00  Status = 1   After game start time out = :  19 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3750709   World Padel Tour Cascais Women   Talavan / Araujo  VS  Virseda / Las Heras   Tennis   2022-09-08T14:00:00  Status = 1   After game start time out = :  19 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3750731   ITF-M Budapest   Aleksandre Bakshi  VS  Peter Goldsteiner   Tennis   2022-09-08T14:10:00  Status = 1   After game start time out = :  19 hours  12 minutes</t>
+  </si>
+  <si>
+    <t>3749090   ITF-W Frydek Mistek   Misaki Matsuda  VS  Aneta Laboutkova   Tennis   2022-09-08T14:10:00  Status = 1   After game start time out = :  19 hours  12 minutes</t>
+  </si>
+  <si>
+    <t>3750041   WTA Bari Doubles   Alena Fomina / Julia Lohoff  VS  Paula Kania-Chodun / Renata Voracova   Tennis   2022-09-08T14:30:00  Status = 1   After game start time out = :  18 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750474   ITF-W Montreux   Chiara Scholl  VS  Conny Perrin   Tennis   2022-09-08T14:30:00  Status = 1   After game start time out = :  18 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750481   ITF-W Montreux   Ines Ibbou  VS  Elsa Jacquemot   Tennis   2022-09-08T14:45:00  Status = 1   After game start time out = :  18 hours  37 minutes</t>
+  </si>
+  <si>
+    <t>3745529   ATP CH Cassis   Zsombor Piros  VS  Terence Atmane   Tennis   2022-09-08T14:45:00  Status = 1   After game start time out = :  18 hours  37 minutes</t>
+  </si>
+  <si>
+    <t>3752022   ITFM25Sintra   Goncalo Oliveira  VS  Mario G Fernandez   Tennis   2022-09-08T14:59:26  Status = 1   After game start time out = :  18 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3748602   ITF-M Cairo   Nitin Kumar Sinha  VS  Jose Fco. Vidal Azorin   Tennis   2022-09-08T15:00:00  Status = 1   After game start time out = :  18 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3749088   ITF-M Madrid   Ryan Nijboer  VS  Edoardo Lavagno   Tennis   2022-09-08T15:05:00  Status = 1   After game start time out = :  18 hours  17 minutes</t>
+  </si>
+  <si>
+    <t>3749999   ITF-M Budapest Doubles   Antonin Bolardt / Michael Vrbensky  VS  Piotr Czaczkowski / Gabriel Matuszewski   Tennis   2022-09-08T15:30:00  Status = 1   After game start time out = :  17 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750712   World Padel Tour Cascais   Fernandez Cano / Garcia Diestro  VS  Stupaczuk / Lima   Tennis   2022-09-08T15:30:00  Status = 1   After game start time out = :  17 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3745834   ATP CH Cassis   Hiroki Moriya  VS  Tomas Machac   Tennis   2022-09-08T15:30:00  Status = 1   After game start time out = :  17 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750725   World Padel Tour Cascais Women   Martinez / Carnicero  VS  Sanchez/Josemaria   Tennis   2022-09-08T15:30:00  Status = 1   After game start time out = :  17 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749173   ITF-M Budapest   Mate Valkusz  VS  Jakub Kroslak   Tennis   2022-09-08T15:30:00  Status = 1   After game start time out = :  17 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3750343   ITF-W Cairo Doubles   Tamara Curovic / Oana Georgeta Simion  VS  Lola Radivojevic / Chantal Sauvant   Tennis   2022-09-08T15:30:00  Status = 1   After game start time out = :  17 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749279   ITF-W Marbella   Alice Rame  VS  Eva Guerrero Alvarez   Tennis   2022-09-08T15:35:00  Status = 1   After game start time out = :  17 hours  47 minutes</t>
+  </si>
+  <si>
+    <t>3750202   ITF-M Casablanca   Stefano Battaglino  VS  David Pichler   Tennis   2022-09-08T15:35:00  Status = 1   After game start time out = :  17 hours  47 minutes</t>
+  </si>
+  <si>
+    <t>3752606   ITFM25Cairo   Remy Bertola  VS  Alec Beckley   Tennis   2022-09-08T15:52:18  Status = 1   After game start time out = :  17 hours  29 minutes</t>
+  </si>
+  <si>
+    <t>3752603   ITFM25Sintra   Daniel Rodrigues  VS  Vito Tonejc   Tennis   2022-09-08T15:52:19  Status = 1   After game start time out = :  17 hours  29 minutes</t>
+  </si>
+  <si>
+    <t>3752635   ITFM25Sintra   Fajing Sun  VS  Harry Wendelken   Tennis   2022-09-08T15:52:24  Status = 1   After game start time out = :  17 hours  29 minutes</t>
+  </si>
+  <si>
+    <t>3752644   ITFW25SaintPalaisSurMer   Sohyun Park  VS  Magali Kempen   Tennis   2022-09-08T15:52:30  Status = 1   After game start time out = :  17 hours  29 minutes</t>
+  </si>
+  <si>
+    <t>3750001   Monastir, Tunisia - Mens Doubles   Anis Ghorbel / Aziz Ouakaa  VS  Luc Koenig / Andreas Scott   Tennis   2022-09-08T16:00:00  Status = 1   After game start time out = :  17 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3746915   ITF-M Cairo Doubles   Julian Gimenez / Marco Miceli  VS  Amr Asrawy / Faris Zakaryia   Tennis   2022-09-08T16:00:00  Status = 1   After game start time out = :  17 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3750002   Monastir, Tunisia - Mens Doubles   Qian Sun / Sheng Tang  VS  Nikolay Nedelchev / Alexandros Skorilas   Tennis   2022-09-08T16:00:00  Status = 1   After game start time out = :  17 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3752709   ITFW25Marbella   Alice Rame  VS  Eva Guerrero Alvarez   Tennis   2022-09-08T16:14:35  Status = 1   After game start time out = :  17 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3752715   ITFM25Sintra   Luca Potenza  VS  Arthur Fery   Tennis   2022-09-08T16:14:35  Status = 1   After game start time out = :  17 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3752733   ITFW25SaintPalaisSurMer   Anna Siskova  VS  Jessica Pieri   Tennis   2022-09-08T16:14:39  Status = 1   After game start time out = :  17 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3749083   ITF-M Sintra   Luca Potenza  VS  Arthur Fery   Tennis   2022-09-08T16:15:00  Status = 1   After game start time out = :  17 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3750489   ITF-W Montreux   Arantxa Rus  VS  Mona Barthel   Tennis   2022-09-08T16:20:00  Status = 1   After game start time out = :  17 hours  2 minutes</t>
+  </si>
+  <si>
+    <t>3749398   Monastir, Tunisia - Womens Doubles   Elena Jamshidi / Lara Pfeifer  VS  Honoka Kobayashi / Milana Zhabrailova   Tennis   2022-09-08T16:30:00  Status = 1   After game start time out = :  16 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3753000   EbasketballBattle-4x5mins   IND Pacers (Moody) Esports  VS  TOR Raptors (Lalkoff) Esports   Basketball   2022-09-08T17:07:39  Status = 1   After game start time out = :  16 hours  14 minutes</t>
+  </si>
+  <si>
+    <t>3753005   EbasketballBattle-4x5mins   MIN Timberwolves (RINT) Esports  VS  DAL Mavericks (tapachan) Esports   Basketball   2022-09-08T17:09:26  Status = 1   After game start time out = :  16 hours  12 minutes</t>
+  </si>
+  <si>
+    <t>3748254   ITF-W Montreux Doubles   Emily Appleton / Elsa Jacquemot  VS  Maria Michaela Fiacan / Elena Grekul   Tennis   2022-09-08T18:00:00  Status = 1   After game start time out = :  15 hours  22 minutes</t>
+  </si>
+  <si>
+    <t>3748263   Cancun, Mexico - Mens Doubles   Blu Baker / Tristan McCormick  VS  Alfredo Casso / Yahir Emiliano Moheno   Tennis   2022-09-08T21:30:00  Status = 1   After game start time out = :  11 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749488   Setka Cup   Ivan Udovenko  VS  Yevhen Skorobahatiy   Table Tennis   2022-09-08T16:10:00  Status = 1   After game start time out = :  17 hours  12 minutes</t>
+  </si>
+  <si>
+    <t>3749487   Setka Cup   Oleg Volynets  VS  Andrii Khnykin   Table Tennis   2022-09-08T17:10:00  Status = 1   After game start time out = :  16 hours  12 minutes</t>
+  </si>
+  <si>
+    <t>3753010   SwedishProSeries   Par Gerell  VS  Elias Ranefur   Table Tennis   2022-09-08T17:13:13  Status = 1   After game start time out = :  16 hours  8 minutes</t>
+  </si>
+  <si>
+    <t>3753016   SetkaCup   Tomas lukes  VS  Jan Blazek   Table Tennis   2022-09-08T17:15:57  Status = 1   After game start time out = :  16 hours  6 minutes</t>
+  </si>
+  <si>
+    <t>3750123   Setka Cup   Anatolii Dulich  VS  Maksim Baranov   Table Tennis   2022-09-08T17:20:00  Status = 1   After game start time out = :  16 hours  2 minutes</t>
+  </si>
+  <si>
+    <t>3752359   Setka Cup   Petro Tsolik  VS  Yuri Kolos   Table Tennis   2022-09-08T17:25:00  Status = 1   After game start time out = :  15 hours  57 minutes</t>
+  </si>
+  <si>
+    <t>3753063   TTStarSeries   Tomas Koldas  VS  Boguslav Koszyk   Table Tennis   2022-09-08T17:26:57  Status = 1   After game start time out = :  15 hours  55 minutes</t>
+  </si>
+  <si>
+    <t>3749572   Setka Cup   Vladimir Melnikov  VS  Andrii Troian   Table Tennis   2022-09-08T17:30:00  Status = 1   After game start time out = :  15 hours  52 minutes</t>
+  </si>
+  <si>
+    <t>3749549   Setka Cup   Aleksey Krutko  VS  Roman Cherevko   Table Tennis   2022-09-08T21:25:00  Status = 1   After game start time out = :  11 hours  57 minutes</t>
+  </si>
+  <si>
+    <t>3752641   3rdTest   England  VS  South Africa   Cricket   2022-09-08T15:52:28  Status = 1   After game start time out = :  17 hours  29 minutes</t>
+  </si>
+  <si>
+    <t>3752236   CS:GO-ElisaInvitational   00Prospects  VS  Dynamo Eclot   E-sports   2022-09-08T15:52:38  Status = 1   After game start time out = :  17 hours  29 minutes</t>
+  </si>
+  <si>
+    <t>3752716   CCDiv1   Hampshire  VS  Northants   Cricket   2022-09-08T16:14:35  Status = 1   After game start time out = :  17 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3752719   CCDiv1   Lancashire  VS  Yorkshire   Cricket   2022-09-08T16:14:37  Status = 1   After game start time out = :  17 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3752364   CPBL   CITIC Brothers  VS  Uni-Lions   Baseball   2022-09-08T15:58:25  Status = 1   After game start time out = :  17 hours  23 minutes</t>
+  </si>
+  <si>
+    <t>3752367   CPBL   Rakuten Monkeys  VS  Wei-Chuan Dragons   Baseball   2022-09-08T15:58:25  Status = 1   After game start time out = :  17 hours  23 minutes</t>
+  </si>
+  <si>
+    <t>3753006   Doncaster   2.35 Doncaster (Race 3)  VS  ~N/A~   Horse Racing   2022-09-08T17:11:56  Status = 1   After game start time out = :  16 hours  10 minutes</t>
+  </si>
+  <si>
+    <t>3749018   World Beach Games. Qualifier. Europe   Spain (W)  VS  Czech Republic (W)   Beach Soccer   2022-09-08T14:15:00  Status = 1   After game start time out = :  19 hours  7 minutes</t>
+  </si>
+  <si>
+    <t>3749019   World Beach Games. Qualifier. Europe   Ukraine  VS  Azerbaijan   Beach Soccer   2022-09-08T15:30:00  Status = 1   After game start time out = :  17 hours  52 minutes</t>
   </si>
 </sst>
 </file>
@@ -116,7 +326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -225,6 +435,356 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,12 +12,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>3763616   OneDayMatch   Southern Vipers Women  VS  Thunder Women   Cricket   2022-09-11T13:27:38  Status = 1   After game start time out = :  21 hours  2 minutes</t>
-  </si>
-  <si>
-    <t>3763755   3rdTest   England  VS  South Africa   Cricket   2022-09-11T13:49:22  Status = 1   After game start time out = :  20 hours  40 minutes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>593770636   EsoccerGTLeagues-12minsplay   Man City (Krouks) Esports  VS  PSG (Gorilla) Esports   Soccer   2022-09-13T11:18:48  Status = 1   After game start time out = :  5 hours  42 minutes</t>
+  </si>
+  <si>
+    <t>603768095   Liga 1   Bhayangkara FC  VS  Pusamania Borneo   Soccer   2022-09-13T13:00:00  Status = 0   After game start time out = :  4 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>613747668   K League 2   Gyeongnam  VS  Gimpo Citizen   Soccer   2022-09-13T14:00:00  Status = 0   After game start time out = :  3 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>623766831   U23 League   Rio Ave U-23  VS  Maritimo Funchal U23   Soccer   2022-09-13T14:00:00  Status = 0   After game start time out = :  3 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>633767365   U23 League   Sporting Braga  VS  Gil Vicente U23   Soccer   2022-09-13T14:00:00  Status = 0   After game start time out = :  3 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>643748195   K League 1   Suwon City  VS  Gimcheon Sangmu   Soccer   2022-09-13T14:00:00  Status = 0   After game start time out = :  3 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>653767446   ITF-M Darwin   Corey Gaal  VS  Matt Hulme   Tennis   2022-09-13T11:00:00  Status = 1   After game start time out = :  6 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>663763770   WTA Bucharest   Danka Kovinic  VS  Kateryna Baindl   Tennis   2022-09-13T11:00:00  Status = 1   After game start time out = :  6 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>673770384   ATP CH Istanbul   Marek Gengel  VS  Illya Marchenko   Tennis   2022-09-13T11:00:00  Status = 1   After game start time out = :  6 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>683763806   WTA Bucharest   Miriam Bianca Bulgaru  VS  Mayar Sherif   Tennis   2022-09-13T11:00:00  Status = 1   After game start time out = :  6 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>693768632   ITF-W Darwin   Momoko Kobori  VS  Madison Frahn   Tennis   2022-09-13T11:00:00  Status = 1   After game start time out = :  6 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>703764380   ATP CH Istanbul   Paul Jubb  VS  Harold Mayot   Tennis   2022-09-13T11:00:00  Status = 1   After game start time out = :  6 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>713767760   Spikers Turf   Cignal  VS  Philippines Navy   Volleyball   2022-09-13T13:30:00  Status = 0   After game start time out = :  3 hours  31 minutes</t>
+  </si>
+  <si>
+    <t>723768230   Czech Liga Pro   Ales Krejci  VS  Miroslav Necas   Table Tennis   2022-09-13T14:30:00  Status = 0   After game start time out = :  2 hours  31 minutes</t>
+  </si>
+  <si>
+    <t>733759609   Counter Strike - Elisa Invitational   BlueJays (CS)  VS  Sashi Esport (CS)   E-sports   2022-09-13T13:00:00  Status = 0   After game start time out = :  4 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>743762428   King of Glory - Honor of Kings Challenger Cup   Ghost Owl Gaming (KG)  VS  EMC (KG)   E-sports   2022-09-13T13:00:00  Status = 0   After game start time out = :  4 hours  1 minutes</t>
+  </si>
+  <si>
+    <t>753768484   NPB Reserve League   Saitama Seibu Lions (R)  VS  Yomiuri Giants (R)   Baseball   2022-09-13T08:00:00  Status = 1   After game start time out = :  9 hours  1 minutes</t>
   </si>
 </sst>
 </file>
@@ -62,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,6 +126,81 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,21 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>293771260   TT Elite Series   Bartosz Czerwinski  VS  Konrad Kulpa   Table Tennis   2022-09-14T00:00:00  Status = 1   After game start time out = :  12 hours  31 minutes</t>
+    <t>3779054   EbasketballBattle-4x5mins   MIA Heat (Tebra) Esports  VS  TOR Raptors (Laja) Esports   Basketball   2022-09-15T08:22:05  Status = 1   After game start time out = :  3 hours  4 minutes</t>
   </si>
   <si>
-    <t>303762118   Counter Strike - CCT Central Europe   eSuba (CS)  VS  OG Academy (CS)   E-sports   2022-09-13T18:00:00  Status = 1   After game start time out = :  18 hours  32 minutes</t>
+    <t>3776268   WTT Contender Almaty MD   Ali Alkhadrawi / Bu Shulaybi Abdulaziz   VS  Iskender Kharki / Kenzhigulov   Table Tennis   2022-09-15T08:00:00  Status = 0   After game start time out = :  3 hours  26 minutes</t>
   </si>
   <si>
-    <t>313715071   Dota 2 - The International. Western Europe   Alliance  VS  Entity (D2)   E-sports   2022-09-13T21:00:00  Status = 1   After game start time out = :  15 hours  32 minutes</t>
+    <t>3776251   WTT Contender Almaty WD   Yi Chen / Yuxuan Qin  VS  Y. Shin/H. Choi   Table Tennis   2022-09-15T08:00:00  Status = 0   After game start time out = :  3 hours  26 minutes</t>
   </si>
   <si>
-    <t>323766525   Counter Strike - CCT South America Series   Paqueta (CS)  VS  Fusion (CS)   E-sports   2022-09-13T21:00:00  Status = 1   After game start time out = :  15 hours  32 minutes</t>
+    <t>3778172   Setka Cup   Oleksandr Hordiichuk  VS  Valery Vlasenko   Table Tennis   2022-09-15T08:25:00  Status = 1   After game start time out = :  3 hours  1 minutes</t>
   </si>
   <si>
-    <t>333771451   Dota 2 - The International. Southeast Asia   Nigma Galaxy SEA (D2)  VS  XERXIA (D2)   E-sports   2022-09-14T08:00:00  Status = 1   After game start time out = :  4 hours  31 minutes</t>
+    <t>3776183   TT Elite Series   Szymon Radlo  VS  Mikolaj Szalinsky   Table Tennis   2022-09-15T08:30:00  Status = 0   After game start time out = :  2 hours  56 minutes</t>
+  </si>
+  <si>
+    <t>3776169   WTT Contender Almaty MD   Lin/Cheng-Ting Liao  VS  Xinyuan Han / Chen Yuanyu   Table Tennis   2022-09-15T08:35:00  Status = 0   After game start time out = :  2 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3776262   WTT Contender Almaty WD   Zang Xiaotong / Yangchen Wu  VS  Zong Geman / Feier Han   Table Tennis   2022-09-15T08:35:00  Status = 0   After game start time out = :  2 hours  51 minutes</t>
+  </si>
+  <si>
+    <t>3778680   MLB   LA Dodgers  VS  ARI Diamondbacks   Baseball   2022-09-15T05:22:23  Status = 1   After game start time out = :  6 hours  3 minutes</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,6 +114,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,30 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>3779054   EbasketballBattle-4x5mins   MIA Heat (Tebra) Esports  VS  TOR Raptors (Laja) Esports   Basketball   2022-09-15T08:22:05  Status = 1   After game start time out = :  3 hours  4 minutes</t>
+    <t>3798927   WTABudapest   Julia Grabher  VS  Timea Babos   Tennis   2022-09-20T00:09:38  Status = 1   After game start time out = :  13 hours  39 minutes</t>
   </si>
   <si>
-    <t>3776268   WTT Contender Almaty MD   Ali Alkhadrawi / Bu Shulaybi Abdulaziz   VS  Iskender Kharki / Kenzhigulov   Table Tennis   2022-09-15T08:00:00  Status = 0   After game start time out = :  3 hours  26 minutes</t>
+    <t>3797778   Czech Liga Pro   Petr Jochym  VS  Adam Strelec   Table Tennis   2022-09-20T11:00:00  Status = 1   After game start time out = :  2 hours  48 minutes</t>
   </si>
   <si>
-    <t>3776251   WTT Contender Almaty WD   Yi Chen / Yuxuan Qin  VS  Y. Shin/H. Choi   Table Tennis   2022-09-15T08:00:00  Status = 0   After game start time out = :  3 hours  26 minutes</t>
-  </si>
-  <si>
-    <t>3778172   Setka Cup   Oleksandr Hordiichuk  VS  Valery Vlasenko   Table Tennis   2022-09-15T08:25:00  Status = 1   After game start time out = :  3 hours  1 minutes</t>
-  </si>
-  <si>
-    <t>3776183   TT Elite Series   Szymon Radlo  VS  Mikolaj Szalinsky   Table Tennis   2022-09-15T08:30:00  Status = 0   After game start time out = :  2 hours  56 minutes</t>
-  </si>
-  <si>
-    <t>3776169   WTT Contender Almaty MD   Lin/Cheng-Ting Liao  VS  Xinyuan Han / Chen Yuanyu   Table Tennis   2022-09-15T08:35:00  Status = 0   After game start time out = :  2 hours  51 minutes</t>
-  </si>
-  <si>
-    <t>3776262   WTT Contender Almaty WD   Zang Xiaotong / Yangchen Wu  VS  Zong Geman / Feier Han   Table Tennis   2022-09-15T08:35:00  Status = 0   After game start time out = :  2 hours  51 minutes</t>
-  </si>
-  <si>
-    <t>3778680   MLB   LA Dodgers  VS  ARI Diamondbacks   Baseball   2022-09-15T05:22:23  Status = 1   After game start time out = :  6 hours  3 minutes</t>
+    <t>3799925   JapanNPBReserveLeague   Orix Buffaloes Reserves  VS  Hanshin Tigers Reserves   Baseball   2022-09-20T07:28:13  Status = 1   After game start time out = :  6 hours  20 minutes</t>
   </si>
 </sst>
 </file>
@@ -80,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,31 +89,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -12,15 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>3798927   WTABudapest   Julia Grabher  VS  Timea Babos   Tennis   2022-09-20T00:09:38  Status = 1   After game start time out = :  13 hours  39 minutes</t>
+    <t>3830818   EsoccerGTLeagues-12minsplay   Inter (Rafa) Esports  VS  Roma (General) Esports   Soccer   2022-09-27T21:15:47  Status = 1   After game start time out = :  12 hours  2 minutes</t>
   </si>
   <si>
-    <t>3797778   Czech Liga Pro   Petr Jochym  VS  Adam Strelec   Table Tennis   2022-09-20T11:00:00  Status = 1   After game start time out = :  2 hours  48 minutes</t>
+    <t>3831213   ITFW25SantaMargherita   Hurricane Tyra Black  VS  Caijsa W Hennemann   Tennis   2022-09-28T00:13:05  Status = 1   After game start time out = :  9 hours  3 minutes</t>
   </si>
   <si>
-    <t>3799925   JapanNPBReserveLeague   Orix Buffaloes Reserves  VS  Hanshin Tigers Reserves   Baseball   2022-09-20T07:28:13  Status = 1   After game start time out = :  6 hours  20 minutes</t>
+    <t>3831330   ChallengerBuenosAires   Roman A Burruchaga  VS  Facundo Juarez   Tennis   2022-09-28T01:39:29  Status = 1   After game start time out = :  7 hours  37 minutes</t>
+  </si>
+  <si>
+    <t>3831498   ITFW25Austin   Nicole Khirin  VS  Eva Guerrero Alvarez   Tennis   2022-09-28T02:19:30  Status = 1   After game start time out = :  6 hours  57 minutes</t>
+  </si>
+  <si>
+    <t>3831454   MLB   TB Rays  VS  CLE Guardians   Baseball   2022-09-28T01:57:17  Status = 1   After game start time out = :  7 hours  19 minutes</t>
+  </si>
+  <si>
+    <t>3831478   TripleAMinorLeague   Durham Bulls  VS  Charlotte Knights   Baseball   2022-09-28T02:03:00  Status = 1   After game start time out = :  7 hours  13 minutes</t>
+  </si>
+  <si>
+    <t>3831480   TripleAMinorLeague   Indianapolis Indians  VS  Columbus Clippers   Baseball   2022-09-28T02:03:00  Status = 1   After game start time out = :  7 hours  13 minutes</t>
+  </si>
+  <si>
+    <t>3831499   MLB   CIN Reds  VS  PIT Pirates   Baseball   2022-09-28T02:19:30  Status = 1   After game start time out = :  6 hours  57 minutes</t>
   </si>
 </sst>
 </file>
@@ -65,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -89,6 +104,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_002_TimeOutGames/1CraftbetDataTimeOutGamesList.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nerses Khachatryan\Desktop\CasinoGamesAPI\IqsoftCazinoGamesAPITest\CasinoGamesAPITest\CasinoGamesAPITest\src\test\java\CraftBet_002_TimeOutGames\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965AD03E-29CA-49B0-84BC-CC1C190F4E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-30" yWindow="2280" windowWidth="28830" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeOutGames" r:id="rId3" sheetId="1"/>
+    <sheet name="TimeOutGames" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,11 +43,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,7 +58,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -69,51 +76,359 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.125" customWidth="true"/>
+    <col min="1" max="1" width="78.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>